--- a/состав_проекта.xlsx
+++ b/состав_проекта.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="1950" yWindow="1950" windowWidth="28800" windowHeight="11295" tabRatio="600" firstSheet="0" activeTab="1" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="0" yWindow="500" windowWidth="14360" windowHeight="16260" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Сведения о проекте" sheetId="1" state="visible" r:id="rId1"/>
@@ -426,13 +426,13 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:I2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E4" sqref="E4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
@@ -457,20 +457,25 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>Стадия проектирования</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Генеральный директор</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>Главный инженер проекта</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Город</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Год разработки</t>
         </is>
@@ -494,32 +499,37 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>C:/Users/naumo/Documents/работа/состав_проекта/Рисунок1.jpg</t>
+          <t>/Users/admin/работа/create_title-ics/Рисунок1.jpg</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>01572000003200008940001-10/20-П-ПЗ1</t>
+          <t>01572000003200008940001-10/20</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>П</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Д.А. Ярошутин</t>
         </is>
       </c>
-      <c r="F2" t="inlineStr">
+      <c r="G2" t="inlineStr">
         <is>
           <t>О.В. Утенков</t>
         </is>
       </c>
-      <c r="G2" t="inlineStr">
+      <c r="H2" t="inlineStr">
         <is>
           <t>Санкт-Петербург</t>
         </is>
       </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>2022</t>
+      <c r="I2" t="inlineStr">
+        <is>
+          <t>2024</t>
         </is>
       </c>
     </row>
@@ -534,279 +544,257 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I6"/>
+  <dimension ref="A1:K9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G4" sqref="G4"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A10" sqref="A9:XFD10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15"/>
   <cols>
-    <col width="12" bestFit="1" customWidth="1" min="1" max="1"/>
-    <col width="14.140625" bestFit="1" customWidth="1" min="2" max="2"/>
-    <col width="26.28515625" bestFit="1" customWidth="1" min="3" max="3"/>
-    <col width="20.140625" bestFit="1" customWidth="1" min="4" max="4"/>
-    <col width="9.28515625" bestFit="1" customWidth="1" min="5" max="5"/>
-    <col width="14" bestFit="1" customWidth="1" min="6" max="6"/>
-    <col width="16.7109375" bestFit="1" customWidth="1" min="7" max="7"/>
-    <col width="16.5703125" bestFit="1" customWidth="1" min="8" max="8"/>
-    <col width="11.5703125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="13.1640625" bestFit="1" customWidth="1" min="1" max="1"/>
+    <col width="19.6640625" bestFit="1" customWidth="1" min="2" max="2"/>
+    <col width="18.5" bestFit="1" customWidth="1" min="3" max="3"/>
+    <col width="11" bestFit="1" customWidth="1" min="4" max="4"/>
+    <col width="25.5" bestFit="1" customWidth="1" min="5" max="5"/>
+    <col width="11" bestFit="1" customWidth="1" min="6" max="6"/>
+    <col width="8.1640625" bestFit="1" customWidth="1" min="7" max="7"/>
+    <col width="10" bestFit="1" customWidth="1" min="8" max="8"/>
+    <col width="8.83203125" bestFit="1" customWidth="1" min="9" max="9"/>
+    <col width="4.33203125" bestFit="1" customWidth="1" min="10" max="10"/>
+    <col width="10.1640625" bestFit="1" customWidth="1" min="11" max="11"/>
   </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Номер тома</t>
+          <t>Номер раздела</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>Обозначение</t>
+          <t>Наименование раздела</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>Наименование</t>
+          <t>Обозначение раздела</t>
         </is>
       </c>
       <c r="D1" t="inlineStr">
         <is>
+          <t>Номер части</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> Наименование части</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
           <t>Примечание</t>
         </is>
       </c>
-      <c r="E1" t="inlineStr">
+      <c r="G1" t="inlineStr">
         <is>
           <t>pdf-файл</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>Разработал</t>
         </is>
       </c>
-      <c r="G1" t="inlineStr">
+      <c r="I1" t="inlineStr">
         <is>
           <t>Проверил</t>
         </is>
       </c>
-      <c r="H1" t="inlineStr">
+      <c r="J1" t="inlineStr">
         <is>
           <t>ГИП</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>Н.Контроль</t>
         </is>
       </c>
     </row>
     <row r="2">
-      <c r="A2" t="inlineStr">
-        <is>
-          <t>курукр</t>
-        </is>
+      <c r="A2" t="n">
+        <v>1</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>укрук</t>
+          <t>Пояснительная записка</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>рукрук</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>рукрукр</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>укрукрукр</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>укрукрук</t>
-        </is>
-      </c>
-      <c r="H2" t="inlineStr">
-        <is>
-          <t>рукрук</t>
-        </is>
-      </c>
-      <c r="I2" t="inlineStr">
-        <is>
-          <t>рукрукрукр</t>
+          <t>ПЗ</t>
+        </is>
+      </c>
+      <c r="D2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>Общая пояснительная записка</t>
         </is>
       </c>
     </row>
     <row r="3">
-      <c r="A3" t="inlineStr">
-        <is>
-          <t>Том 3</t>
-        </is>
+      <c r="A3" t="n">
+        <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>23523523525</t>
+          <t>Пояснительная записка</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>Бебрп</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>примечание</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Писисисис</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>Пидиди</t>
-        </is>
-      </c>
-      <c r="H3" t="inlineStr">
-        <is>
-          <t>ГИП ГИП УРАААА</t>
-        </is>
-      </c>
-      <c r="I3" t="inlineStr">
-        <is>
-          <t>НИГГЕРМ+С</t>
+          <t>ПЗ</t>
+        </is>
+      </c>
+      <c r="D3" t="n">
+        <v>2</v>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>Исходные данные и условия для подготовки проектной документации. Материалы согласований</t>
         </is>
       </c>
     </row>
     <row r="4">
-      <c r="A4" t="inlineStr">
-        <is>
-          <t>Том 44</t>
-        </is>
+      <c r="A4" t="n">
+        <v>2</v>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>4353463463</t>
+          <t>Проект полосы отвода</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>Объект easgerwherhedrher</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>примечание бла бла</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>Разраьб</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>провер</t>
-        </is>
-      </c>
-      <c r="H4" t="inlineStr">
-        <is>
-          <t>ГИП</t>
-        </is>
-      </c>
-      <c r="I4" t="inlineStr">
-        <is>
-          <t>Контроль</t>
+          <t>ППО</t>
         </is>
       </c>
     </row>
     <row r="5">
-      <c r="A5" t="inlineStr">
-        <is>
-          <t>Том 1</t>
-        </is>
+      <c r="A5" t="n">
+        <v>3</v>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2423532523523</t>
+          <t>Технологические и конструктивные решения линейного объекта. Искусственные сооружения</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>Объект такойто такойто</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>примечаний нет</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>Пупкин вадим</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>Кузькин Матвекй</t>
-        </is>
-      </c>
-      <c r="H5" t="inlineStr">
-        <is>
-          <t>Михайлов пп</t>
-        </is>
-      </c>
-      <c r="I5" t="inlineStr">
-        <is>
-          <t>Разамаз аа</t>
+          <t>ТКР</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>1</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Варианты проектных решений капитального ремонта моста</t>
         </is>
       </c>
     </row>
     <row r="6">
-      <c r="A6" t="inlineStr">
-        <is>
-          <t>Том 5</t>
-        </is>
+      <c r="A6" t="n">
+        <v>3</v>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>23523523525</t>
+          <t>Технологические и конструктивные решения линейного объекта. Искусственные сооружения</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>Бебрп</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>примечание</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>Писисисис</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>Пидиди</t>
-        </is>
-      </c>
-      <c r="H6" t="inlineStr">
-        <is>
-          <t>ГИП ГИП УРАААА</t>
-        </is>
-      </c>
-      <c r="I6" t="inlineStr">
-        <is>
-          <t>НИГГЕРМ+С</t>
+          <t>ТКР</t>
+        </is>
+      </c>
+      <c r="D6" t="n">
+        <v>2</v>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Мост через реку Уда</t>
+        </is>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>3</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>Технологические и конструктивные решения линейного объекта. Искусственные сооружения</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>ТКР</t>
+        </is>
+      </c>
+      <c r="D7" t="n">
+        <v>3</v>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>Автодорожные подходы</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>3</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Технологические и конструктивные решения линейного объекта. Искусственные сооружения</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>ТКР</t>
+        </is>
+      </c>
+      <c r="D8" t="n">
+        <v>4</v>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Технические средства организации дорожного движения на период эксплуатации</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>3</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Технологические и конструктивные решения линейного объекта. Искусственные сооружения</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>ТКР</t>
+        </is>
+      </c>
+      <c r="D9" t="n">
+        <v>5</v>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>Очистные сооружения</t>
         </is>
       </c>
     </row>
